--- a/data/trans_bre/P37A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P37A-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,48</t>
+          <t>-9,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-10,02</t>
+          <t>-8,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-22,44</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-4,41%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-9,53%</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-12,46%</t>
+          <t>-4,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>-12,33%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-10,16%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>-27,07%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,02%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 6,66</t>
+          <t>-13,94; 6,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 2,79</t>
+          <t>-18,95; 0,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 0,75</t>
+          <t>-18,82; 2,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-34,53; -10,02</t>
+          <t>-8,63; 15,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 9,03</t>
+          <t>-34,81; -9,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,49; 3,9</t>
+          <t>-13,88; 11,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 0,9</t>
+          <t>-16,89; 9,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,23; -12,92</t>
+          <t>-22,8; 0,19</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-22,14; 3,87</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-11,43; 26,91</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-40,07; -12,36</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-17,86; 18,01</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,97</t>
+          <t>-11,84</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-16,91</t>
+          <t>-16,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,23</t>
+          <t>-11,48</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-19,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,85%</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-21,26%</t>
+          <t>-13,97</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-16,35%</t>
+          <t>-14,7%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,05%</t>
+          <t>-20,69%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-15,5%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-25,2%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-8,0%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-18,96%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 0,81</t>
+          <t>-21,64; 2,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,25; -8,24</t>
+          <t>-26,32; -8,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,51; -1,81</t>
+          <t>-21,82; -0,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 6,32</t>
+          <t>-30,96; -8,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,55; 1,01</t>
+          <t>-16,82; 7,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-30,93; -11,04</t>
+          <t>-25,86; -3,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,32; -2,75</t>
+          <t>-25,48; 2,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 10,29</t>
+          <t>-31,64; -11,28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-27,35; -0,66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-37,93; -11,86</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-22,3; 12,12</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-32,91; -5,51</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,97</t>
+          <t>-3,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,81</t>
+          <t>-5,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,73</t>
+          <t>-8,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-10,31</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>-9,89</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-8,06%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,88%</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,45%</t>
+          <t>-4,2%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-13,1%</t>
+          <t>-8,16%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-11,35%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-14,76%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-13,11%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-8,6%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 2,84</t>
+          <t>-12,78; 5,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 1,44</t>
+          <t>-13,09; 2,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 1,58</t>
+          <t>-15,88; -0,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,92; -0,51</t>
+          <t>-18,72; -1,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 4,04</t>
+          <t>-18,45; -1,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 1,96</t>
+          <t>-16,25; 4,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 2,22</t>
+          <t>-16,68; 8,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,58; -0,85</t>
+          <t>-16,99; 3,49</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-19,92; -0,46</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-25,21; -2,5</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-23,77; -1,99</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-22,64; 6,81</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>-9,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-12,44</t>
+          <t>-12,04</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-16,94</t>
+          <t>-16,76</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-18,99</t>
+          <t>-11,73</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,01%</t>
+          <t>-19,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,11%</t>
+          <t>-12,3</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-21,27%</t>
+          <t>-12,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-24,63%</t>
+          <t>-15,74%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-21,19%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-16,08%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-24,64%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-16,97%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,78; -2,15</t>
+          <t>-17,23; -0,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,65; -5,26</t>
+          <t>-19,22; -5,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,77; -9,37</t>
+          <t>-23,5; -9,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,16; -9,35</t>
+          <t>-19,73; -1,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,62; -3,02</t>
+          <t>-27,96; -9,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,41; -7,34</t>
+          <t>-22,19; -3,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,85; -12,45</t>
+          <t>-21,05; -1,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,87; -12,9</t>
+          <t>-24,08; -7,3</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-28,78; -12,11</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-25,59; -2,78</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-34,44; -12,88</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-27,98; -5,19</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>-6,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-8,68</t>
+          <t>-8,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>-6,95</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,09</t>
+          <t>-16,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,26%</t>
+          <t>-11,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,17%</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-8,29%</t>
+          <t>-7,49%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-13,78%</t>
+          <t>-10,0%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-8,19%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-19,74%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-13,79%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 3,4</t>
+          <t>-13,7; 1,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,03; -1,47</t>
+          <t>-16,22; -1,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,94; -0,14</t>
+          <t>-13,77; -0,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,28; -3,07</t>
+          <t>-25,96; -7,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,2; 4,07</t>
+          <t>-20,39; -3,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,31; -1,75</t>
+          <t>-8,93; 8,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,99; -0,29</t>
+          <t>-15,75; 1,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-23,24; -4,09</t>
+          <t>-18,79; -1,56</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-15,66; -0,78</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-29,91; -9,78</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-24,04; -4,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-11,96; 13,52</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,83</t>
+          <t>-9,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,52</t>
+          <t>-9,63</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-10,22</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,55%</t>
+          <t>-10,21</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,37%</t>
+          <t>-6,52</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>-9,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-11,13%</t>
+          <t>-10,52%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-5,57%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-4,78%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-11,12%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-7,72%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 0,4</t>
+          <t>-16,04; -1,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-16,02; -2,96</t>
+          <t>-16,23; -2,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 2,86</t>
+          <t>-10,82; 1,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,97; -2,48</t>
+          <t>-14,98; 3,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 0,25</t>
+          <t>-19,22; -1,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,05; -3,42</t>
+          <t>-14,75; 3,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 3,18</t>
+          <t>-17,02; -2,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-20,18; -2,72</t>
+          <t>-17,25; -3,18</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-11,45; 1,15</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-16,43; 3,37</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-20,63; -2,21</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-16,95; 3,5</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,19</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-9,54</t>
+          <t>-9,73</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,98</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,7</t>
+          <t>-9,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,88%</t>
+          <t>-11,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,86%</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,15%</t>
+          <t>-8,22%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-14,84%</t>
+          <t>-12,13%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-11,11%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-11,98%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-14,83%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-8,58%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,62; -3,63</t>
+          <t>-10,48; -2,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,78; -6,26</t>
+          <t>-12,76; -6,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,39; -5,28</t>
+          <t>-12,59; -5,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,84; -7,43</t>
+          <t>-13,15; -5,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,06; -4,64</t>
+          <t>-15,9; -7,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,62; -8,06</t>
+          <t>-10,24; -1,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,25; -6,7</t>
+          <t>-12,7; -3,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-19,63; -9,81</t>
+          <t>-15,56; -8,36</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-15,33; -6,85</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-16,62; -7,23</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-19,6; -9,82</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-13,76; -2,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
